--- a/map.xlsx
+++ b/map.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Part Name</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t xml:space="preserve">Rear Right Motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB webcam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any port will work, it doesn’t really matter</t>
   </si>
 </sst>
 </file>
@@ -55,6 +64,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -136,18 +146,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.484693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.7142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -191,6 +201,17 @@
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/map.xlsx
+++ b/map.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">USB port</t>
   </si>
   <si>
-    <t xml:space="preserve">any port will work, it doesn’t really matter</t>
+    <t xml:space="preserve">port cam0</t>
   </si>
 </sst>
 </file>
@@ -149,15 +149,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/map.xlsx
+++ b/map.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Part Name</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">port cam0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ball Collector Motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs to be a talon hooked up to port 5 on the rio</t>
   </si>
 </sst>
 </file>
@@ -146,17 +152,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -211,6 +218,17 @@
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/map.xlsx
+++ b/map.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Part Name</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t xml:space="preserve">Needs to be a talon hooked up to port 5 on the rio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera Servo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the servo that controls our webcam</t>
   </si>
 </sst>
 </file>
@@ -152,18 +158,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -229,6 +235,17 @@
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/map.xlsx
+++ b/map.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Part Name</t>
   </si>
@@ -49,7 +49,13 @@
     <t xml:space="preserve">USB port</t>
   </si>
   <si>
-    <t xml:space="preserve">any port will work, it doesn’t really matter</t>
+    <t xml:space="preserve">port cam0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera Servo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it’s a servo</t>
   </si>
 </sst>
 </file>
@@ -146,18 +152,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -212,6 +217,17 @@
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/map.xlsx
+++ b/map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -161,15 +161,15 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -242,7 +242,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>13</v>
